--- a/追加の仕様書/スタートボタン押したときの仕様.xlsx
+++ b/追加の仕様書/スタートボタン押したときの仕様.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76EA740-3EB5-42FE-A5D8-5674D4C67E98}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697FA36-1FDD-4686-84E3-2BAB18A87FF5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>スタートボタンを押したときの処理</t>
     <rPh sb="8" eb="9">
@@ -38,16 +38,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>背景は半透明にする</t>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ハントウメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -101,6 +91,67 @@
     <t>マップはリアルタイムで動かす</t>
     <rPh sb="11" eb="12">
       <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景は半透明にす（ゲーム画面の上から半透明の青を掛ける感じ）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハントウメイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ハントウメイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択してものに遷移するようにする</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字は太字</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フトジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション押したらゲーム画面に戻る</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -308,12 +359,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="257175"/>
-          <a:ext cx="1047750" cy="333375"/>
+          <a:off x="76200" y="254374"/>
+          <a:ext cx="1045509" cy="330573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -335,7 +391,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
             <a:t>マップ</a:t>
           </a:r>
         </a:p>
@@ -369,8 +425,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1209675" y="266700"/>
-          <a:ext cx="1419225" cy="333375"/>
+          <a:off x="1207434" y="263899"/>
+          <a:ext cx="1414742" cy="330573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2308,23 +2364,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>10645</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109817</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>210671</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>58270</xdr:colOff>
+      <xdr:rowOff>189940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>471767</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>70597</xdr:rowOff>
+      <xdr:rowOff>49866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="正方形/長方形 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA738D96-047D-439B-987A-798F554813A2}"/>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBC7E30-E108-4C9B-8BAB-F620684EC2FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2388,309 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1377763" y="3269877"/>
+          <a:off x="109817" y="3249146"/>
+          <a:ext cx="1045509" cy="330573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>616323</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5863CC01-2693-433B-84D2-645F54A2CEB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4964206" y="1994648"/>
+          <a:ext cx="1120588" cy="224117"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>626970</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>126626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AB7B31-5B7A-4D32-B16F-B58457CBC876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2677646" y="266700"/>
+          <a:ext cx="2140883" cy="330573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトルに戻る・ゲームに戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95811</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186017</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1AFAF3-4659-429F-BB59-52B74D8BD5CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2830046" y="3209365"/>
+          <a:ext cx="2140883" cy="330573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトルに戻る・ゲームに戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>230839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>190817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268A5C27-FE5E-4B6C-85A1-EC7BA5B9032C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8702486"/>
+          <a:ext cx="10611971" cy="4666449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+            <a:alpha val="58000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6162</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53787</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>99732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0E483E-97B5-4E41-A305-500DAB8A1657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1373280" y="8711453"/>
           <a:ext cx="1414742" cy="330573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2379,22 +2737,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>109817</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>189940</xdr:rowOff>
+      <xdr:colOff>150158</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>471767</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>49866</xdr:rowOff>
+      <xdr:colOff>512108</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBC7E30-E108-4C9B-8BAB-F620684EC2FF}"/>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349FE7FC-358E-42D8-9376-765BAE14B3F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2760,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="109817" y="3249146"/>
+          <a:off x="150158" y="8713135"/>
           <a:ext cx="1045509" cy="330573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2439,23 +2797,147 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8403</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>129990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>493060</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412C8F1B-02E4-42CF-9FC3-EAEA64CF410A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3426197" y="9778255"/>
+          <a:ext cx="3218892" cy="676833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>ゲームに戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>575420</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>24655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>230841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C60DAE-14CD-44D6-8E51-ACCDE951F201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3309655" y="11320184"/>
+          <a:ext cx="3492315" cy="676833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>タイトルに戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>578224</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5863CC01-2693-433B-84D2-645F54A2CEB1}"/>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B89A14-74FB-4442-87D4-B25635C0C4C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,8 +2945,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4964206" y="1994648"/>
-          <a:ext cx="1344706" cy="246528"/>
+          <a:off x="8628529" y="1893794"/>
+          <a:ext cx="152401" cy="1564341"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2485,6 +2967,487 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>553571</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED744FC-20E5-423F-9F27-3736F64C3377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1237130" y="3219450"/>
+          <a:ext cx="1519518" cy="330573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>操作方法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一時停止</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>537881</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>117661</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4D6533-9F5D-405A-9629-86D9FDD43436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924733" y="8729382"/>
+          <a:ext cx="2398060" cy="330573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タイトルに戻る・ゲームに戻る</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>483980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF18A761-EDDF-4579-B650-EEB1A014D504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5246480" y="5042541"/>
+          <a:ext cx="5877" cy="1339209"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338027</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68247</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020133FA-ECEF-4297-AF8C-26CF38F59BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5244750" y="6426482"/>
+          <a:ext cx="2577206" cy="9908"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>332238</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8BB7B2-94DD-41DD-906C-2333314B819C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7816167" y="6291759"/>
+          <a:ext cx="1178154" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>オプション</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2753,10 +3716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2768,17 +3731,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="J2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="J3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="J4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="J5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2788,22 +3756,33 @@
     </row>
     <row r="8" spans="1:10">
       <c r="J8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="J10" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="J12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="17:17">
       <c r="Q17" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/追加の仕様書/スタートボタン押したときの仕様.xlsx
+++ b/追加の仕様書/スタートボタン押したときの仕様.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697FA36-1FDD-4686-84E3-2BAB18A87FF5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC615E8-09CF-4DE4-94F2-F8832114B207}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,15 +689,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>599791</xdr:colOff>
+      <xdr:colOff>572575</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>162787</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>251447</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>234063</xdr:rowOff>
+      <xdr:rowOff>80801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -712,8 +712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7403362" y="4081644"/>
-          <a:ext cx="2373085" cy="316205"/>
+          <a:off x="7376146" y="3918857"/>
+          <a:ext cx="1373247" cy="325730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -846,15 +846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
+      <xdr:colOff>625929</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>107885</xdr:rowOff>
+      <xdr:rowOff>231322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>545193</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>188686</xdr:rowOff>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67195</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -869,8 +869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="721179" y="4516599"/>
-          <a:ext cx="1184728" cy="325730"/>
+          <a:off x="1306286" y="4640036"/>
+          <a:ext cx="571500" cy="325730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1159,16 +1159,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490681</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>41644</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>103907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>270994</xdr:colOff>
+      <xdr:colOff>367392</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>184708</xdr:rowOff>
+      <xdr:rowOff>157494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1183,8 +1183,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7525573" y="5247407"/>
-          <a:ext cx="909707" cy="325730"/>
+          <a:off x="7294252" y="5220193"/>
+          <a:ext cx="557069" cy="325730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1316,16 +1316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>269001</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>677217</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489858</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>17836</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>87572</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>98638</xdr:rowOff>
+      <xdr:rowOff>12766</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1340,8 +1340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7752930" y="4671479"/>
-          <a:ext cx="2539999" cy="325730"/>
+          <a:off x="7480788" y="4340679"/>
+          <a:ext cx="1173356" cy="325730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1643,173 +1643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>33675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>115261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371131</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>644280</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>196063</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFC3B67-BEC9-4B47-9BBD-68603FAE445D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="717234" y="3645114"/>
-          <a:ext cx="2388132" cy="316125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
-            </a:rPr>
-            <a:t>ロックオン</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
-            <a:ea typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>617065</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1226</xdr:rowOff>
+      <xdr:rowOff>96476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>599791</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1226</xdr:rowOff>
+      <xdr:colOff>627006</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96476</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1826,7 +1669,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6059922" y="4409940"/>
+          <a:off x="6087137" y="4015333"/>
           <a:ext cx="1343440" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1854,14 +1697,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>288039</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>43110</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>189740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>270765</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>25836</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>189740</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1879,7 +1722,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6411253" y="4843383"/>
+          <a:off x="6166324" y="4598454"/>
           <a:ext cx="1343441" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1907,15 +1750,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>400522</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>218644</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28254</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>218644</xdr:rowOff>
+      <xdr:colOff>223629</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>218645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>531719</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>218645</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1932,7 +1775,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5843379" y="5607073"/>
+          <a:off x="5666486" y="5362145"/>
           <a:ext cx="1668804" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1960,22 +1803,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>86651</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>154855</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>86651</xdr:colOff>
+      <xdr:colOff>30493</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>132286</xdr:rowOff>
+      <xdr:rowOff>123653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>566627</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133561</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2EBEEB-5ECD-4A9D-A6C5-C60211285172}"/>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03E081A-3726-4E2F-8E6D-A94112641C3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,9 +1827,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5529508" y="5053426"/>
-          <a:ext cx="0" cy="957146"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5473350" y="6001939"/>
+          <a:ext cx="2577206" cy="9908"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2012,23 +1855,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>30493</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350086</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>566627</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133561</xdr:rowOff>
+      <xdr:rowOff>132285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350086</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>21125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03E081A-3726-4E2F-8E6D-A94112641C3F}"/>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E27349-3DC5-404F-99EB-7F5C758B10A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,9 +1880,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5473350" y="6001939"/>
-          <a:ext cx="2577206" cy="9908"/>
+        <a:xfrm flipV="1">
+          <a:off x="5112586" y="6010571"/>
+          <a:ext cx="0" cy="1113483"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2065,23 +1908,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350086</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>132285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350086</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>21125</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545193</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>189740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>630405</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>189740</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E27349-3DC5-404F-99EB-7F5C758B10A0}"/>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2FADC6-DAAA-47C9-A094-6081526FD89C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,9 +1933,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5112586" y="6010571"/>
-          <a:ext cx="0" cy="1113483"/>
+        <a:xfrm>
+          <a:off x="1905907" y="4843383"/>
+          <a:ext cx="765569" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2118,59 +1961,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>545193</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>189740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>630405</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>189740</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2FADC6-DAAA-47C9-A094-6081526FD89C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905907" y="4843383"/>
-          <a:ext cx="765569" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>589402</xdr:colOff>
       <xdr:row>33</xdr:row>
@@ -2312,15 +2102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>440278</xdr:colOff>
+      <xdr:colOff>236171</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>134210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236171</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>147816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>440278</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>221</xdr:rowOff>
+      <xdr:rowOff>231543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2337,7 +2127,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5883135" y="5291316"/>
+          <a:off x="5679028" y="5032781"/>
           <a:ext cx="0" cy="342262"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3440,6 +3230,269 @@
               <a:ea typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
             </a:rPr>
             <a:t>オプション</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>670549</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAC0FFF-4BBE-4F84-8336-4917A5361500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5810250" y="3677876"/>
+          <a:ext cx="1663870" cy="9660"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>410936</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573C4A14-D0AD-4CAB-AF01-E114003A381C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5851072" y="3714749"/>
+          <a:ext cx="2721" cy="492579"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>616119</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>557892</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B1E0AD-9D75-4732-98D9-AB48C8C2F603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419690" y="3526473"/>
+          <a:ext cx="622131" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>射撃</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="HG創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020809000000000000" pitchFamily="17" charset="-128"/>
@@ -3718,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
